--- a/downloaded_files/GENS110_Lecture-35032.xlsx
+++ b/downloaded_files/GENS110_Lecture-35032.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>omar abozeid hamam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1240114</x:t>
@@ -539,7 +548,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -839,7 +848,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1570,7 +1579,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.6951308218</x:v>
+        <x:v>45918.9051652778</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4200689468</x:v>
+        <x:v>45908.6951308218</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4195545139</x:v>
+        <x:v>45907.4200689468</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4144429745</x:v>
+        <x:v>45907.4195545139</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4145690162</x:v>
+        <x:v>45907.4144429745</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.4145690162</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1762,7 +1771,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1794,7 +1803,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.7060480671</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1826,7 +1835,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4188102662</x:v>
+        <x:v>45906.7060480671</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1858,7 +1867,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45907.4188102662</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1890,7 +1899,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4175051736</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1922,7 +1931,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.9820513889</x:v>
+        <x:v>45907.4175051736</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1954,7 +1963,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45914.9820513889</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1986,7 +1995,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2018,7 +2027,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6645800579</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2050,7 +2059,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.9825077894</x:v>
+        <x:v>45906.6645800579</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2082,7 +2091,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.9746844907</x:v>
+        <x:v>45914.9825077894</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2114,7 +2123,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45914.9746844907</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2142,9 +2151,11 @@
       <x:c r="C40" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s"/>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.9783690972</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2167,16 +2178,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
+      <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
-        <x:v>45907.4197252662</x:v>
+        <x:v>45914.9783690972</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2208,7 +2217,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45914.9822932523</x:v>
+        <x:v>45907.4197252662</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2240,7 +2249,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4394815972</x:v>
+        <x:v>45914.9822932523</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2272,7 +2281,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45914.988121412</x:v>
+        <x:v>45909.4394815972</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2304,7 +2313,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45914.988121412</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2321,6 +2330,38 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35032.xlsx
+++ b/downloaded_files/GENS110_Lecture-35032.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1220027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم علاء الدين على المنسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ibrahim alaa eldin ali elmansy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230003</x:t>
   </x:si>
   <x:si>
@@ -150,15 +141,6 @@
     <x:t>salma Magdi Ibrahim Mostafa</x:t>
   </x:si>
   <x:si>
-    <x:t>4230151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>طلعت مصطفى فريز حسان نقريش</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Talaat Mostafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>2230010</x:t>
   </x:si>
   <x:si>
@@ -213,15 +195,6 @@
     <x:t>omar abozeid hamam</x:t>
   </x:si>
   <x:si>
-    <x:t>1240111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar mohamed salaheldeen</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240114</x:t>
   </x:si>
   <x:si>
@@ -247,15 +220,6 @@
   </x:si>
   <x:si>
     <x:t>lojain khaled ramadan mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مارينا ريمون سمير زكريا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARINA REMON SAMIR ZAKARIA</x:t>
   </x:si>
   <x:si>
     <x:t>1230237</x:t>
@@ -548,7 +512,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -848,7 +812,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -939,7 +903,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.5182089468</x:v>
+        <x:v>45907.4200774306</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -971,7 +935,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4200774306</x:v>
+        <x:v>45909.4217514236</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1003,7 +967,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.4217514236</x:v>
+        <x:v>45914.983790706</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1035,7 +999,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.983790706</x:v>
+        <x:v>45914.9852249653</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1067,7 +1031,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.9852249653</x:v>
+        <x:v>45907.6652448264</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1099,7 +1063,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6652448264</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1131,7 +1095,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45914.9832954861</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1163,7 +1127,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.9832954861</x:v>
+        <x:v>45906.6658085301</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1195,7 +1159,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6658085301</x:v>
+        <x:v>45907.4224261574</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1227,7 +1191,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4224261574</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1259,7 +1223,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45909.4191344097</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1291,7 +1255,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4191344097</x:v>
+        <x:v>45915.3947059028</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1323,7 +1287,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.3947059028</x:v>
+        <x:v>45906.6647096875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1355,7 +1319,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.9818183681</x:v>
+        <x:v>45914.984346331</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1387,7 +1351,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647096875</x:v>
+        <x:v>45914.9902665856</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1419,7 +1383,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.984346331</x:v>
+        <x:v>45914.9828999653</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1451,7 +1415,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9902665856</x:v>
+        <x:v>45909.41596875</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1483,7 +1447,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9828999653</x:v>
+        <x:v>45907.4202964931</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1515,7 +1479,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.41596875</x:v>
+        <x:v>45908.6951308218</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1547,7 +1511,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4202964931</x:v>
+        <x:v>45907.4200689468</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1579,7 +1543,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.9051652778</x:v>
+        <x:v>45907.4195545139</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1611,7 +1575,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.6951308218</x:v>
+        <x:v>45907.4145690162</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1643,7 +1607,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4200689468</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1675,7 +1639,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4195545139</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1707,7 +1671,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4144429745</x:v>
+        <x:v>45906.7060480671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1739,7 +1703,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4145690162</x:v>
+        <x:v>45907.4188102662</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1771,7 +1735,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1803,7 +1767,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.4175051736</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1835,7 +1799,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.7060480671</x:v>
+        <x:v>45914.9820513889</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1867,7 +1831,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4188102662</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1899,7 +1863,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1931,7 +1895,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4175051736</x:v>
+        <x:v>45906.6645800579</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1963,7 +1927,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.9820513889</x:v>
+        <x:v>45914.9825077894</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1995,7 +1959,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45914.9746844907</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2027,7 +1991,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2055,11 +2019,9 @@
       <x:c r="C37" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
+      <x:c r="D37" s="2" t="s"/>
       <x:c r="E37" s="3">
-        <x:v>45906.6645800579</x:v>
+        <x:v>45914.9783690972</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2082,16 +2044,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.9825077894</x:v>
+        <x:v>45907.4197252662</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2114,16 +2076,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.9746844907</x:v>
+        <x:v>45914.9822932523</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2146,16 +2108,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45909.4394815972</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2178,14 +2140,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="s">
+      <x:c r="D41" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
-        <x:v>45914.9783690972</x:v>
+        <x:v>45914.988121412</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2217,7 +2181,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4197252662</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2234,134 +2198,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45914.9822932523</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45909.4394815972</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45914.988121412</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:20">
-      <x:c r="A46" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E46" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="2" t="s"/>
-      <x:c r="Q46" s="2" t="s"/>
-      <x:c r="R46" s="2" t="s"/>
-      <x:c r="S46" s="2" t="s"/>
-      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35032.xlsx
+++ b/downloaded_files/GENS110_Lecture-35032.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -388,6 +388,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ayman Bakry Awaad Youssef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230327</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف صفوت وهبه زكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Safwat Wahba Zekry</x:t>
   </x:si>
   <x:si>
     <x:t>1240175</x:t>
@@ -512,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -812,7 +821,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2181,7 +2190,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45924.3950540509</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2198,6 +2207,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35032.xlsx
+++ b/downloaded_files/GENS110_Lecture-35032.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Abdallah Khafagy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد محمد حسن محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbdelRahman Ahmed Mohamed Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230058</x:t>
@@ -521,7 +530,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -821,7 +830,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1360,7 +1369,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.9902665856</x:v>
+        <x:v>45924.8963157407</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1392,7 +1401,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.9828999653</x:v>
+        <x:v>45914.9902665856</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1424,7 +1433,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.41596875</x:v>
+        <x:v>45914.9828999653</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4202964931</x:v>
+        <x:v>45909.41596875</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.6951308218</x:v>
+        <x:v>45907.4202964931</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4200689468</x:v>
+        <x:v>45908.6951308218</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1552,7 +1561,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4195545139</x:v>
+        <x:v>45907.4200689468</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1584,7 +1593,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4145690162</x:v>
+        <x:v>45907.4195545139</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1616,7 +1625,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.4145690162</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1648,7 +1657,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1680,7 +1689,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.7060480671</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1712,7 +1721,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4188102662</x:v>
+        <x:v>45906.7060480671</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1744,7 +1753,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45907.4188102662</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1776,7 +1785,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4175051736</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1808,7 +1817,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.9820513889</x:v>
+        <x:v>45907.4175051736</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1840,7 +1849,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45914.9820513889</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1872,7 +1881,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1904,7 +1913,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6645800579</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1936,7 +1945,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.9825077894</x:v>
+        <x:v>45906.6645800579</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1968,7 +1977,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.9746844907</x:v>
+        <x:v>45914.9825077894</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2000,7 +2009,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45914.9746844907</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2028,9 +2037,11 @@
       <x:c r="C37" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s"/>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.9783690972</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2053,16 +2064,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
+      <x:c r="D38" s="2" t="s"/>
       <x:c r="E38" s="3">
-        <x:v>45907.4197252662</x:v>
+        <x:v>45914.9783690972</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.9822932523</x:v>
+        <x:v>45907.4197252662</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2126,7 +2135,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4394815972</x:v>
+        <x:v>45914.9822932523</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2158,7 +2167,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45914.988121412</x:v>
+        <x:v>45909.4394815972</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2190,7 +2199,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45924.3950540509</x:v>
+        <x:v>45914.988121412</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2222,7 +2231,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45924.3950540509</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2239,6 +2248,38 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35032.xlsx
+++ b/downloaded_files/GENS110_Lecture-35032.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>ahmed kahled makbouly mohamed abdo</x:t>
   </x:si>
   <x:si>
+    <x:t>1240287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وليد محمد نبيه فرج حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Waleed Mohamed Nabih</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240289</x:t>
   </x:si>
   <x:si>
@@ -267,15 +276,6 @@
     <x:t>Mahmoud Emad Mahmoud Abdelhalim</x:t>
   </x:si>
   <x:si>
-    <x:t>1230251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان أحمد حسن سعيد معوض أبو الحسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Ahmed Hassan Said Moawad Abuelhassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230324</x:t>
   </x:si>
   <x:si>
@@ -330,6 +330,15 @@
     <x:t>Hana Hisham Hosny Abdelwahab</x:t>
   </x:si>
   <x:si>
+    <x:t>1240188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنداوي محمد هنداوي درويش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hendawy Mohamed Hendawy Darwish</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230284</x:t>
   </x:si>
   <x:si>
@@ -370,6 +379,15 @@
   </x:si>
   <x:si>
     <x:t>yahia helal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوحنا ميخائيل خليفة ميخائيل خليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youhana Mikhael Khalifa Mikhael</x:t>
   </x:si>
   <x:si>
     <x:t>1240278</x:t>
@@ -530,7 +548,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -830,7 +848,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -985,7 +1003,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.983790706</x:v>
+        <x:v>45925.3598608449</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1017,7 +1035,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.9852249653</x:v>
+        <x:v>45914.983790706</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1049,7 +1067,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6652448264</x:v>
+        <x:v>45914.9852249653</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1081,7 +1099,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45907.6652448264</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1113,7 +1131,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.9832954861</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1145,7 +1163,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6658085301</x:v>
+        <x:v>45914.9832954861</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1177,7 +1195,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4224261574</x:v>
+        <x:v>45906.6658085301</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1209,7 +1227,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.4224261574</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1241,7 +1259,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4191344097</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1273,7 +1291,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.3947059028</x:v>
+        <x:v>45909.4191344097</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1305,7 +1323,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6647096875</x:v>
+        <x:v>45915.3947059028</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1337,7 +1355,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.984346331</x:v>
+        <x:v>45906.6647096875</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1369,7 +1387,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45924.8963157407</x:v>
+        <x:v>45914.984346331</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1401,7 +1419,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.9902665856</x:v>
+        <x:v>45924.8963157407</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1433,7 +1451,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9828999653</x:v>
+        <x:v>45914.9902665856</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1465,7 +1483,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.41596875</x:v>
+        <x:v>45914.9828999653</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1497,7 +1515,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4202964931</x:v>
+        <x:v>45909.41596875</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1529,7 +1547,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.6951308218</x:v>
+        <x:v>45907.4202964931</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1561,7 +1579,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4200689468</x:v>
+        <x:v>45908.6951308218</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1593,7 +1611,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4195545139</x:v>
+        <x:v>45907.4200689468</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1625,7 +1643,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4145690162</x:v>
+        <x:v>45907.4195545139</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1657,7 +1675,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.4145690162</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1689,7 +1707,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1721,7 +1739,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.7060480671</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1753,7 +1771,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4188102662</x:v>
+        <x:v>45906.7060480671</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1977,7 +1995,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.9825077894</x:v>
+        <x:v>45925.4933082523</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2009,7 +2027,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.9746844907</x:v>
+        <x:v>45914.9825077894</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2041,7 +2059,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45914.9746844907</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2069,9 +2087,11 @@
       <x:c r="C38" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s"/>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.9783690972</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2094,16 +2114,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
+      <x:c r="D39" s="2" t="s"/>
       <x:c r="E39" s="3">
-        <x:v>45907.4197252662</x:v>
+        <x:v>45914.9783690972</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2135,7 +2153,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.9822932523</x:v>
+        <x:v>45907.4197252662</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2167,7 +2185,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4394815972</x:v>
+        <x:v>45925.3642092593</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2199,7 +2217,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45914.988121412</x:v>
+        <x:v>45914.9822932523</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2231,7 +2249,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45924.3950540509</x:v>
+        <x:v>45909.4394815972</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2263,7 +2281,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45914.988121412</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2280,6 +2298,70 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45924.3950540509</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35032.xlsx
+++ b/downloaded_files/GENS110_Lecture-35032.xlsx
@@ -321,6 +321,15 @@
     <x:t>nour mohamed ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>4240058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هايدى عزت عبدالفتاح على محفوظ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>haidy ezat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220152</x:t>
   </x:si>
   <x:si>
@@ -390,6 +399,15 @@
     <x:t>Youhana Mikhael Khalifa Mikhael</x:t>
   </x:si>
   <x:si>
+    <x:t>1240166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوساب يوسف اسحق برسوم حنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssab Youssef</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240278</x:t>
   </x:si>
   <x:si>
@@ -399,15 +417,6 @@
     <x:t>Youssef Ahmed Abdelmoghny Hammouda</x:t>
   </x:si>
   <x:si>
-    <x:t>1230329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240171</x:t>
   </x:si>
   <x:si>
@@ -424,15 +433,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Safwat Wahba Zekry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد عبدالرحمن عبدالعزيز السيد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef Mohamed Abdelrahman Abdelaziz Elsayed Ahmed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -857,7 +857,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.730625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="50.930625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="48.200625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1963,7 +1963,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6645800579</x:v>
+        <x:v>45928.0661751968</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1995,7 +1995,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45925.4933082523</x:v>
+        <x:v>45906.6645800579</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2027,7 +2027,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.9825077894</x:v>
+        <x:v>45925.4933082523</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2059,7 +2059,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.9746844907</x:v>
+        <x:v>45914.9825077894</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2091,7 +2091,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45914.9746844907</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2119,9 +2119,11 @@
       <x:c r="C39" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s"/>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.9783690972</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2144,16 +2146,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
+      <x:c r="D40" s="2" t="s"/>
       <x:c r="E40" s="3">
-        <x:v>45907.4197252662</x:v>
+        <x:v>45914.9783690972</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2185,7 +2185,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45925.3642092593</x:v>
+        <x:v>45907.4197252662</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2217,7 +2217,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45914.9822932523</x:v>
+        <x:v>45925.3642092593</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2249,7 +2249,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4394815972</x:v>
+        <x:v>45927.8010066782</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2281,7 +2281,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45914.988121412</x:v>
+        <x:v>45914.9822932523</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2313,7 +2313,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45924.3950540509</x:v>
+        <x:v>45914.988121412</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2345,7 +2345,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45924.3950540509</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>

--- a/downloaded_files/GENS110_Lecture-35032.xlsx
+++ b/downloaded_files/GENS110_Lecture-35032.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,24 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Pretty Ehab Farouk Issac</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>تسنيم يحيى محمد فرج</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tasneem Yahia Mohamed Farag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جمانة وليد عبد المنعم امين محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jomana Waleed Abdel Moneim Amin Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220118</x:t>
@@ -548,7 +530,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -848,7 +830,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1131,7 +1113,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45906.6658085301</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1163,7 +1145,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.9832954861</x:v>
+        <x:v>45907.4224261574</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1195,7 +1177,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6658085301</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1227,7 +1209,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4224261574</x:v>
+        <x:v>45909.4191344097</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1259,7 +1241,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45915.3947059028</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1291,7 +1273,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4191344097</x:v>
+        <x:v>45906.6647096875</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1323,7 +1305,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.3947059028</x:v>
+        <x:v>45914.984346331</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1355,7 +1337,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6647096875</x:v>
+        <x:v>45924.8963157407</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1387,7 +1369,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.984346331</x:v>
+        <x:v>45914.9902665856</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1419,7 +1401,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45924.8963157407</x:v>
+        <x:v>45914.9828999653</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1451,7 +1433,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9902665856</x:v>
+        <x:v>45909.41596875</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1483,7 +1465,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9828999653</x:v>
+        <x:v>45907.4202964931</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1515,7 +1497,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.41596875</x:v>
+        <x:v>45908.6951308218</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1547,7 +1529,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4202964931</x:v>
+        <x:v>45907.4200689468</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1579,7 +1561,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.6951308218</x:v>
+        <x:v>45907.4195545139</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1611,7 +1593,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4200689468</x:v>
+        <x:v>45907.4145690162</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1643,7 +1625,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4195545139</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1675,7 +1657,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4145690162</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1707,7 +1689,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45906.7060480671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1739,7 +1721,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1771,7 +1753,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.7060480671</x:v>
+        <x:v>45907.4175051736</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1803,7 +1785,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45914.9820513889</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1835,7 +1817,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4175051736</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1867,7 +1849,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.9820513889</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1899,7 +1881,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45928.0661751968</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1931,7 +1913,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45906.6645800579</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1963,7 +1945,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45928.0661751968</x:v>
+        <x:v>45925.4933082523</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1995,7 +1977,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6645800579</x:v>
+        <x:v>45914.9825077894</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2027,7 +2009,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45925.4933082523</x:v>
+        <x:v>45914.9746844907</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2059,7 +2041,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.9825077894</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2087,11 +2069,9 @@
       <x:c r="C38" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
+      <x:c r="D38" s="2" t="s"/>
       <x:c r="E38" s="3">
-        <x:v>45914.9746844907</x:v>
+        <x:v>45914.9783690972</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2114,16 +2094,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45907.4197252662</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2146,14 +2126,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s"/>
       <x:c r="E40" s="3">
-        <x:v>45914.9783690972</x:v>
+        <x:v>45925.3642092593</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2185,7 +2167,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4197252662</x:v>
+        <x:v>45927.8010066782</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2217,7 +2199,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45925.3642092593</x:v>
+        <x:v>45914.9822932523</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2249,7 +2231,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45927.8010066782</x:v>
+        <x:v>45914.988121412</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2281,7 +2263,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45914.9822932523</x:v>
+        <x:v>45924.3950540509</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2298,70 +2280,6 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45914.988121412</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:20">
-      <x:c r="A46" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E46" s="3">
-        <x:v>45924.3950540509</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="2" t="s"/>
-      <x:c r="Q46" s="2" t="s"/>
-      <x:c r="R46" s="2" t="s"/>
-      <x:c r="S46" s="2" t="s"/>
-      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35032.xlsx
+++ b/downloaded_files/GENS110_Lecture-35032.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -213,6 +213,15 @@
     <x:t xml:space="preserve">Omar Wael Ali Omar </x:t>
   </x:si>
   <x:si>
+    <x:t>1230224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فريد رامز حسني غزال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farid Ramez Hosny Ghazal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230086</x:t>
   </x:si>
   <x:si>
@@ -415,6 +424,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Safwat Wahba Zekry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد وليد احمد محمد مبروك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Walid Ahmed Mohamed Mabruk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -530,7 +548,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -830,7 +848,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1561,7 +1579,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4195545139</x:v>
+        <x:v>45928.7477470255</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1593,7 +1611,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4145690162</x:v>
+        <x:v>45907.4195545139</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1625,7 +1643,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.4145690162</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1657,7 +1675,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1689,7 +1707,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.7060480671</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1721,7 +1739,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45906.7060480671</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1753,7 +1771,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4175051736</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1785,7 +1803,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.9820513889</x:v>
+        <x:v>45907.4175051736</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1817,7 +1835,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45914.9820513889</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1849,7 +1867,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1881,7 +1899,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45928.0661751968</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1913,7 +1931,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6645800579</x:v>
+        <x:v>45928.0661751968</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1945,7 +1963,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45925.4933082523</x:v>
+        <x:v>45906.6645800579</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1977,7 +1995,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.9825077894</x:v>
+        <x:v>45925.4933082523</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2009,7 +2027,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.9746844907</x:v>
+        <x:v>45914.9825077894</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2041,7 +2059,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45914.9746844907</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2069,9 +2087,11 @@
       <x:c r="C38" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s"/>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.9783690972</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2094,16 +2114,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
+      <x:c r="D39" s="2" t="s"/>
       <x:c r="E39" s="3">
-        <x:v>45907.4197252662</x:v>
+        <x:v>45914.9783690972</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2135,7 +2153,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45925.3642092593</x:v>
+        <x:v>45907.4197252662</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2167,7 +2185,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45927.8010066782</x:v>
+        <x:v>45925.3642092593</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2199,7 +2217,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45914.9822932523</x:v>
+        <x:v>45927.8010066782</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2231,7 +2249,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45914.988121412</x:v>
+        <x:v>45914.9822932523</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2263,7 +2281,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45924.3950540509</x:v>
+        <x:v>45914.988121412</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2280,6 +2298,70 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45924.3950540509</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45928.7593881944</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35032.xlsx
+++ b/downloaded_files/GENS110_Lecture-35032.xlsx
@@ -2368,11 +2368,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Fundamentals of Management, Risk and  Environment (GENS110) Location : [20104]20104-45-الجيزة الرئيسي Time : Tuesday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Fundamentals of Management, Risk and  Environment (GENS110) Location : [0]1125-0-الجيزة الرئيسي Time : Tuesday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Fundamentals of Management, Risk and  Environment (GENS110) Location : [20104]20104-45-الجيزة الرئيسي Time : Tuesday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Fundamentals of Management, Risk and  Environment (GENS110) Location : [0]1125-0-الجيزة الرئيسي Time : Tuesday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Fundamentals of Management, Risk and  Environment (GENS110) Location : [20104]20104-45-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Fundamentals of Management, Risk and  Environment (GENS110) Location : [0]1125-0-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">
